--- a/Datos/Database by set/Set with text box/Xlsx sets/Love Your LGS (PLGS).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Love Your LGS (PLGS).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,77 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hangarback Walker</t>
+          <t>('Hangarback Walker', ['{X}{X}', 'Artifact Creature — Construct', 'Hangarback Walker enters the battlefield with X +1/+1 counters on it.', 'When Hangarback Walker dies, create a 1/1 colorless Thopter artifact creature token with flying for each +1/+1 counter on Hangarback Walker.', '{1}, {T}: Put a +1/+1 counter on Hangarback Walker.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{X}{X}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Construct</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Hangarback Walker enters the battlefield with X +1/+1 counters on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>When Hangarback Walker dies, create a 1/1 colorless Thopter artifact creature token with flying for each +1/+1 counter on Hangarback Walker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{1}, {T}: Put a +1/+1 counter on Hangarback Walker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Reliquary Tower</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>You have no maximum hand size.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
+          <t>('Reliquary Tower', ['Land', 'You have no maximum hand size.', '{T}: Add {C}.'])</t>
         </is>
       </c>
     </row>
